--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -258,7 +258,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,23 +266,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,10 +291,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -919,273 +920,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDA0BEE-D991-446F-8E32-EBC70E737C78}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C03DD8A-72E9-4070-9F8E-E1AB7226957F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1692909B-9C74-4F9E-95C8-7E9E713C3727}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -283,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,13 +454,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -459,19 +468,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -479,19 +488,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -499,19 +508,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -519,19 +528,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -539,19 +548,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -559,19 +568,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -579,19 +588,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -599,19 +608,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -619,19 +628,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -639,19 +648,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -659,19 +668,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -679,19 +688,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -699,19 +708,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -719,19 +728,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -739,19 +748,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -759,19 +768,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -779,19 +788,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -799,19 +808,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -819,19 +828,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -839,19 +848,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -859,19 +868,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -879,19 +888,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -899,21 +908,41 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,24 +74,48 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -224,7 +248,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -292,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -302,7 +326,7 @@
     <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -454,13 +478,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -468,19 +492,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -488,19 +512,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -508,19 +532,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -528,19 +552,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -548,16 +572,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -568,7 +592,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -577,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -588,16 +612,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -608,16 +632,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -628,16 +652,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -648,16 +672,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -668,16 +692,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -688,16 +712,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -708,16 +732,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -728,16 +752,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -748,16 +772,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -768,16 +792,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -788,16 +812,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -808,16 +832,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -828,16 +852,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -848,16 +872,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -868,16 +892,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -888,16 +912,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -908,16 +932,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -928,21 +952,101 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -252,6 +258,81 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto collegato</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -316,18 +397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,25 +431,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -389,665 +477,1043 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -409,7 +409,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.5.2</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.5.2</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -478,1042 +481,1042 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="108">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,12 +137,6 @@
     <t>nome</t>
   </si>
   <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -155,91 +149,91 @@
     <t>dataNascita</t>
   </si>
   <si>
-    <t>Stato Nascita</t>
+    <t>Stato di nascita</t>
   </si>
   <si>
     <t>idStatoNascita</t>
   </si>
   <si>
-    <t>Stato Nascita - Descrizione</t>
+    <t>Stato di nascita - Descrizione</t>
   </si>
   <si>
     <t>nomeStatoNascita</t>
   </si>
   <si>
-    <t>Provincia Nascita</t>
+    <t>Provincia di nascita</t>
   </si>
   <si>
     <t>idProvinciaNascita</t>
   </si>
   <si>
-    <t>Provincia Nascita - Descrizione</t>
+    <t>Provincia di nascita - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaNascita</t>
   </si>
   <si>
-    <t>Comune Nascita</t>
+    <t>Comune di nascita</t>
   </si>
   <si>
     <t>idComuneNascita</t>
   </si>
   <si>
-    <t>Comune Nascita - Descrizione</t>
+    <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Nazionalità</t>
+    <t>Nazionalita</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalità   - Descrizione</t>
+    <t>Nazionalita - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
   </si>
   <si>
-    <t>Stato Residenza</t>
+    <t>Stato di residenza</t>
   </si>
   <si>
     <t>idStatoResidenza</t>
   </si>
   <si>
-    <t>Stato Residenza - Descrizione</t>
+    <t>Stato di residenza - Descrizione</t>
   </si>
   <si>
     <t>nomeStatoResidenza</t>
   </si>
   <si>
-    <t>Provincia Residenza</t>
+    <t>Provincia di residenza</t>
   </si>
   <si>
     <t>idProvinciaResidenza</t>
   </si>
   <si>
-    <t>Provincia Residenza - Descrizione</t>
+    <t>Provincia di residenza - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaResidenza</t>
   </si>
   <si>
-    <t>Comune Residenza</t>
+    <t>Comune di residenza</t>
   </si>
   <si>
     <t>idComuneResidenza</t>
   </si>
   <si>
-    <t>Comune Residenza - Descrizione</t>
+    <t>Comune di residenza - Descrizione</t>
   </si>
   <si>
     <t>nomeComuneResidenza</t>
   </si>
   <si>
-    <t>Indirizzo Residenza</t>
+    <t>Indirizzo di residenza</t>
   </si>
   <si>
     <t>indirizzoResidenza</t>
@@ -400,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -699,7 +693,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -745,7 +739,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -837,7 +831,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -952,7 +946,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -975,7 +969,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -998,7 +992,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1021,7 +1015,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1136,7 +1130,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1182,7 +1176,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1199,53 +1193,53 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
@@ -1254,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1263,12 +1257,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1277,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1286,12 +1280,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1300,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1309,12 +1303,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1323,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1332,12 +1326,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1346,44 +1340,44 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1392,53 +1386,53 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1447,12 +1441,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1461,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1470,21 +1464,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1493,29 +1487,6 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
   <si>
     <t>Sezione</t>
   </si>
@@ -185,6 +185,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -314,22 +320,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -394,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1130,7 +1136,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1176,7 +1182,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1193,53 +1199,53 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
@@ -1248,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1257,12 +1263,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1271,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1280,12 +1286,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1294,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1303,12 +1309,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1317,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1326,12 +1332,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1340,44 +1346,44 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1386,44 +1392,44 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1432,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1441,12 +1447,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1455,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1464,21 +1470,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1487,6 +1493,29 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -1412,7 +1412,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>85</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -400,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1222,122 +1246,122 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1346,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1355,12 +1379,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1369,153 +1393,245 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -191,13 +197,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -424,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -769,7 +775,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -861,7 +867,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -1183,7 +1189,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -1229,7 +1235,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1338,53 +1344,53 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1393,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1402,12 +1408,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1416,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1425,12 +1431,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1439,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1448,12 +1454,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1462,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1471,12 +1477,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1485,90 +1491,90 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1577,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1586,12 +1592,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1600,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1609,21 +1615,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1632,6 +1638,29 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1212,7 +1218,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1258,7 +1264,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>37</v>
@@ -1367,53 +1373,53 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1422,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1431,12 +1437,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1445,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1454,12 +1460,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1468,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1477,12 +1483,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1491,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1500,12 +1506,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1514,90 +1520,90 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1606,7 +1612,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1615,12 +1621,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1629,7 +1635,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1638,21 +1644,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1661,6 +1667,29 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1241,7 +1247,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1287,7 +1293,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>37</v>
@@ -1396,53 +1402,53 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1451,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1460,12 +1466,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1474,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1483,12 +1489,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1497,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1506,12 +1512,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1520,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1529,12 +1535,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1543,90 +1549,90 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1635,7 +1641,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1644,12 +1650,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1658,7 +1664,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1667,21 +1673,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1690,6 +1696,29 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1701,16 +1707,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1719,6 +1725,29 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
@@ -303,6 +309,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -448,14 +460,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
@@ -741,19 +753,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -764,16 +776,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -787,16 +799,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -810,16 +822,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -833,7 +845,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -842,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -856,7 +868,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -865,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -879,7 +891,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -888,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -902,16 +914,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -925,7 +937,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -934,7 +946,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -948,7 +960,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -957,7 +969,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -971,7 +983,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -980,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -994,7 +1006,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -1003,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1017,7 +1029,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -1026,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -1040,7 +1052,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -1049,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1063,7 +1075,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -1072,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1086,7 +1098,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1095,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1109,7 +1121,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1118,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1132,7 +1144,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1141,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1155,7 +1167,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1164,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1178,7 +1190,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1187,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1201,7 +1213,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1210,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1224,7 +1236,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1233,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1247,7 +1259,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1256,7 +1268,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1270,16 +1282,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1293,7 +1305,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1302,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1316,16 +1328,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1339,7 +1351,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1348,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1362,7 +1374,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1371,7 +1383,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1385,7 +1397,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1394,7 +1406,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1408,7 +1420,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1417,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1431,76 +1443,76 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1509,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1518,12 +1530,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1532,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1541,12 +1553,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1555,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1564,12 +1576,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1578,113 +1590,113 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1693,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1702,12 +1714,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1716,7 +1728,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1725,21 +1737,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1748,6 +1760,52 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,12 +119,6 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
-  </si>
-  <si>
     <t>Intestatario</t>
   </si>
   <si>
@@ -309,12 +303,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -460,14 +448,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
@@ -753,19 +741,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -776,16 +764,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -799,16 +787,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -822,16 +810,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -845,7 +833,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -854,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -868,7 +856,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -877,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -891,7 +879,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -900,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -914,16 +902,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -937,7 +925,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -946,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -960,7 +948,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -969,7 +957,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -983,7 +971,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -992,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -1006,7 +994,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -1015,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1029,7 +1017,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -1038,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -1052,7 +1040,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -1061,7 +1049,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1075,7 +1063,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -1084,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1098,7 +1086,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1107,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1121,7 +1109,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1130,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1144,7 +1132,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1153,7 +1141,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1167,7 +1155,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1176,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1190,7 +1178,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1199,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1213,7 +1201,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1222,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1236,7 +1224,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1245,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1259,7 +1247,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1268,7 +1256,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1282,16 +1270,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1305,7 +1293,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1314,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1328,16 +1316,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1351,7 +1339,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1360,7 +1348,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1374,7 +1362,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1383,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1397,7 +1385,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1406,7 +1394,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1420,7 +1408,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1429,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1443,76 +1431,76 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1521,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1530,12 +1518,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1544,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1553,12 +1541,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1567,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1576,12 +1564,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1590,113 +1578,113 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1705,7 +1693,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1714,12 +1702,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1728,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1737,21 +1725,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1760,52 +1748,6 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -460,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -874,7 +886,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -897,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -943,7 +955,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
@@ -966,7 +978,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -1311,7 +1323,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
@@ -1334,7 +1346,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -1357,7 +1369,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
@@ -1380,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
@@ -1489,76 +1501,76 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1567,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1576,12 +1588,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1590,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1599,12 +1611,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1613,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1622,12 +1634,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>116</v>
@@ -1636,113 +1648,113 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1751,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1760,12 +1772,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
@@ -1774,7 +1786,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -1783,21 +1795,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>129</v>
@@ -1806,6 +1818,52 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -534,63 +540,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -599,90 +605,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -691,21 +697,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -714,21 +720,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -737,21 +743,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -760,21 +766,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -783,44 +789,44 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -829,21 +835,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -852,12 +858,12 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -866,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -875,21 +881,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -898,21 +904,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -921,12 +927,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -935,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -944,21 +950,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -967,21 +973,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -990,21 +996,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -1013,21 +1019,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1036,21 +1042,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -1059,21 +1065,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1082,21 +1088,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1105,21 +1111,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1128,21 +1134,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1151,21 +1157,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1174,21 +1180,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1197,21 +1203,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1220,21 +1226,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1243,21 +1249,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1266,21 +1272,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1289,21 +1295,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1312,21 +1318,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1335,21 +1341,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1358,12 +1364,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1372,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1381,21 +1387,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1404,21 +1410,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1427,21 +1433,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1450,21 +1456,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1473,21 +1479,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1496,21 +1502,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1519,21 +1525,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1542,67 +1548,67 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1611,21 +1617,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1634,21 +1640,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>117</v>
@@ -1657,21 +1663,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>119</v>
@@ -1680,113 +1686,113 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -1795,21 +1801,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>129</v>
@@ -1818,21 +1824,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>131</v>
@@ -1841,12 +1847,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>132</v>
@@ -1855,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>133</v>
@@ -1864,7 +1870,30 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -817,19 +823,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -840,16 +846,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -863,16 +869,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -886,16 +892,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -909,16 +915,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -932,7 +938,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -941,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -955,16 +961,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -978,7 +984,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -987,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -1010,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -1024,16 +1030,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1047,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -1056,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -1070,7 +1076,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -1079,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -1102,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1116,7 +1122,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1125,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1139,7 +1145,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1148,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1162,7 +1168,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1171,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1194,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1208,7 +1214,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1217,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1231,7 +1237,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1240,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1263,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1277,7 +1283,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1286,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1309,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1332,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1355,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1378,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1392,16 +1398,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1415,7 +1421,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1424,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1438,16 +1444,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1461,7 +1467,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1470,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1493,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1516,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1539,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1562,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1576,53 +1582,53 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1631,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1640,12 +1646,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>116</v>
@@ -1654,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>117</v>
@@ -1663,12 +1669,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>118</v>
@@ -1677,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>119</v>
@@ -1686,12 +1692,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>120</v>
@@ -1700,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>121</v>
@@ -1709,12 +1715,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>122</v>
@@ -1723,90 +1729,90 @@
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
@@ -1815,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>129</v>
@@ -1824,12 +1830,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>130</v>
@@ -1838,7 +1844,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>131</v>
@@ -1847,12 +1853,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>132</v>
@@ -1861,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>133</v>
@@ -1870,21 +1876,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>135</v>
@@ -1893,6 +1899,29 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>19</v>
       </c>
     </row>
